--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value3839.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value3839.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.31116745338225</v>
+        <v>3.608123302459717</v>
       </c>
       <c r="B1">
-        <v>2.188178411351812</v>
+        <v>3.858084201812744</v>
       </c>
       <c r="C1">
-        <v>4.66076970708766</v>
+        <v>7.523407459259033</v>
       </c>
       <c r="D1">
-        <v>3.480055627241435</v>
+        <v>7.679680824279785</v>
       </c>
       <c r="E1">
-        <v>1.063588343780976</v>
+        <v>6.009304046630859</v>
       </c>
     </row>
   </sheetData>
